--- a/ToolikLake/Toolik.xlsx
+++ b/ToolikLake/Toolik.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9210"/>
+    <workbookView xWindow="270" yWindow="255" windowWidth="9510" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Toolik" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>datetime</t>
   </si>
@@ -45,15 +45,18 @@
   <si>
     <t>SW_DOC</t>
   </si>
+  <si>
+    <t>Secchi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,7 +536,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -664,7 +667,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -699,7 +701,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -875,28 +876,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,8 +929,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>38520</v>
       </c>
@@ -959,8 +964,11 @@
       <c r="J2">
         <v>6.0895770000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>38527</v>
       </c>
@@ -991,8 +999,11 @@
       <c r="J3">
         <v>3.5792780000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>38534</v>
       </c>
@@ -1023,8 +1034,11 @@
       <c r="J4">
         <v>3.0868270000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>38541</v>
       </c>
@@ -1055,8 +1069,11 @@
       <c r="J5">
         <v>4.744345</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>38548</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="J6">
         <v>6.1496320000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>38555</v>
       </c>
@@ -1119,8 +1139,11 @@
       <c r="J7">
         <v>5.188752</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>38562</v>
       </c>
@@ -1151,8 +1174,11 @@
       <c r="J8">
         <v>4.396026</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>38569</v>
       </c>
@@ -1183,8 +1209,11 @@
       <c r="J9">
         <v>4.0116740000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>38576</v>
       </c>
@@ -1215,8 +1244,11 @@
       <c r="J10">
         <v>3.7474320000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>38582</v>
       </c>
@@ -1247,8 +1279,11 @@
       <c r="J11">
         <v>3.459168</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>38586</v>
       </c>
@@ -1279,8 +1314,11 @@
       <c r="J12">
         <v>3.5072120000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>38592</v>
       </c>
@@ -1303,7 +1341,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>38891</v>
       </c>
@@ -1331,8 +1369,11 @@
       <c r="J14">
         <v>7.3026880000000007</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>38898</v>
       </c>
@@ -1360,8 +1401,11 @@
       <c r="J15">
         <v>7.0864900000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>38905</v>
       </c>
@@ -1389,8 +1433,11 @@
       <c r="J16">
         <v>6.8342590000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>38912</v>
       </c>
@@ -1418,8 +1465,11 @@
       <c r="J17">
         <v>6.2457200000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>38919</v>
       </c>
@@ -1448,7 +1498,7 @@
         <v>6.1736540000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>38926</v>
       </c>
@@ -1477,7 +1527,7 @@
         <v>6.5099620000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>38933</v>
       </c>
@@ -1505,8 +1555,11 @@
       <c r="J20">
         <v>5.8733790000000008</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>38937</v>
       </c>
@@ -1534,8 +1587,11 @@
       <c r="J21">
         <v>6.5459950000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>38947</v>
       </c>
@@ -1560,8 +1616,11 @@
       <c r="J22">
         <v>9.9090750000000014</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>38954</v>
       </c>
@@ -1577,8 +1636,11 @@
       <c r="G23">
         <v>8.77</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>38957</v>
       </c>
@@ -1595,7 +1657,7 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>38959</v>
       </c>
@@ -1611,8 +1673,11 @@
       <c r="G25">
         <v>8.0399999999999991</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>39255</v>
       </c>
@@ -1640,8 +1705,11 @@
       <c r="J26">
         <v>3.8915640000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>39262</v>
       </c>
@@ -1669,8 +1737,11 @@
       <c r="J27">
         <v>4.2398830000000007</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>39269</v>
       </c>
@@ -1698,8 +1769,11 @@
       <c r="J28">
         <v>3.4231350000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>39276</v>
       </c>
@@ -1728,7 +1802,7 @@
         <v>4.1077620000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>39283</v>
       </c>
@@ -1756,8 +1830,11 @@
       <c r="J30">
         <v>4.9485320000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>39290</v>
       </c>
@@ -1785,8 +1862,11 @@
       <c r="J31">
         <v>4.3720040000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>39297</v>
       </c>
@@ -1814,8 +1894,11 @@
       <c r="J32">
         <v>5.4049500000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>39304</v>
       </c>
@@ -1843,8 +1926,11 @@
       <c r="J33">
         <v>6.9303470000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>39311</v>
       </c>
@@ -1873,7 +1959,7 @@
         <v>6.4859400000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>39317</v>
       </c>
@@ -1893,7 +1979,7 @@
         <v>1.4330000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>39344</v>
       </c>
@@ -1916,7 +2002,7 @@
         <v>6.1856650000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>39353</v>
       </c>
@@ -1939,7 +2025,7 @@
         <v>6.4138740000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>39619</v>
       </c>
@@ -1967,8 +2053,11 @@
       <c r="J38">
         <v>8.1915019999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>39626</v>
       </c>
@@ -1996,8 +2085,11 @@
       <c r="J39">
         <v>8.455744000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39633</v>
       </c>
@@ -2025,8 +2117,11 @@
       <c r="J40">
         <v>7.3387210000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39640</v>
       </c>
@@ -2054,8 +2149,11 @@
       <c r="J41">
         <v>7.711062000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>39647</v>
       </c>
@@ -2083,8 +2181,11 @@
       <c r="J42">
         <v>7.2546440000000008</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>39654</v>
       </c>
@@ -2112,8 +2213,11 @@
       <c r="J43">
         <v>7.6149740000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>39661</v>
       </c>
@@ -2141,8 +2245,11 @@
       <c r="J44">
         <v>7.4227980000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>39668</v>
       </c>
@@ -2170,8 +2277,11 @@
       <c r="J45">
         <v>7.3387210000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>39675</v>
       </c>
@@ -2199,8 +2309,11 @@
       <c r="J46">
         <v>6.1015880000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>39682</v>
       </c>
@@ -2219,8 +2332,11 @@
       <c r="I47">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>39696</v>
       </c>
@@ -2239,8 +2355,11 @@
       <c r="I48">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>39706</v>
       </c>
@@ -2258,6 +2377,9 @@
       </c>
       <c r="I49">
         <v>0.38</v>
+      </c>
+      <c r="K49">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/ToolikLake/Toolik.xlsx
+++ b/ToolikLake/Toolik.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="255" windowWidth="9510" windowHeight="7695"/>
@@ -56,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -490,7 +499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -533,12 +542,45 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -576,6 +618,9 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="43"/>
+    <cellStyle name="Normal 2 2" xfId="44"/>
+    <cellStyle name="Normal 3" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -583,12 +628,7 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -881,7 +921,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -941,10 +981,11 @@
         <v>10566000</v>
       </c>
       <c r="C2">
-        <v>0.11</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D2">
-        <v>0.11</v>
+        <f>C2</f>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -961,8 +1002,8 @@
       <c r="I2">
         <v>1.7</v>
       </c>
-      <c r="J2">
-        <v>6.0895770000000002</v>
+      <c r="J2" s="2">
+        <v>6.0894249</v>
       </c>
       <c r="K2">
         <v>2.9</v>
@@ -976,10 +1017,11 @@
         <v>10566000</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <f t="shared" ref="D3:D46" si="0">C3</f>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -996,8 +1038,8 @@
       <c r="I3">
         <v>1.69</v>
       </c>
-      <c r="J3">
-        <v>3.5792780000000004</v>
+      <c r="J3" s="3">
+        <v>3.5791885999999997</v>
       </c>
       <c r="K3">
         <v>4.0999999999999996</v>
@@ -1011,10 +1053,11 @@
         <v>10566000</v>
       </c>
       <c r="C4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D4">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="E4">
         <v>86.36</v>
@@ -1031,8 +1074,8 @@
       <c r="I4">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J4">
-        <v>3.0868270000000004</v>
+      <c r="J4" s="4">
+        <v>3.0867499</v>
       </c>
       <c r="K4">
         <v>5.6</v>
@@ -1046,10 +1089,11 @@
         <v>10566000</v>
       </c>
       <c r="C5">
-        <v>0.66</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D5">
-        <v>0.66</v>
+        <f t="shared" si="0"/>
+        <v>0.19900000000000001</v>
       </c>
       <c r="E5">
         <v>294.60000000000002</v>
@@ -1066,8 +1110,8 @@
       <c r="I5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J5">
-        <v>4.744345</v>
+      <c r="J5" s="5">
+        <v>4.7442264999999999</v>
       </c>
       <c r="K5">
         <v>4.5999999999999996</v>
@@ -1081,10 +1125,11 @@
         <v>10566000</v>
       </c>
       <c r="C6">
-        <v>1.37</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="D6">
-        <v>1.37</v>
+        <f t="shared" si="0"/>
+        <v>1.5760000000000001</v>
       </c>
       <c r="E6">
         <v>12.7</v>
@@ -1101,8 +1146,8 @@
       <c r="I6">
         <v>0.95</v>
       </c>
-      <c r="J6">
-        <v>6.1496320000000004</v>
+      <c r="J6" s="6">
+        <v>6.1494784000000005</v>
       </c>
       <c r="K6">
         <v>6.73</v>
@@ -1116,10 +1161,11 @@
         <v>10566000</v>
       </c>
       <c r="C7">
-        <v>0.27</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D7">
-        <v>0.27</v>
+        <f t="shared" si="0"/>
+        <v>0.45800000000000002</v>
       </c>
       <c r="E7">
         <v>5.08</v>
@@ -1136,8 +1182,8 @@
       <c r="I7">
         <v>0.89</v>
       </c>
-      <c r="J7">
-        <v>5.188752</v>
+      <c r="J7" s="7">
+        <v>5.1886223999999999</v>
       </c>
       <c r="K7">
         <v>5.4</v>
@@ -1151,10 +1197,11 @@
         <v>10566000</v>
       </c>
       <c r="C8">
-        <v>0.08</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D8">
-        <v>0.08</v>
+        <f t="shared" si="0"/>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1171,8 +1218,8 @@
       <c r="I8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J8">
-        <v>4.396026</v>
+      <c r="J8" s="8">
+        <v>4.3959162000000003</v>
       </c>
       <c r="K8">
         <v>4.9000000000000004</v>
@@ -1186,10 +1233,11 @@
         <v>10566000</v>
       </c>
       <c r="C9">
-        <v>0.05</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1206,8 +1254,8 @@
       <c r="I9">
         <v>1.42</v>
       </c>
-      <c r="J9">
-        <v>4.0116740000000002</v>
+      <c r="J9" s="8">
+        <v>4.0115737999999999</v>
       </c>
       <c r="K9">
         <v>4.5999999999999996</v>
@@ -1221,10 +1269,11 @@
         <v>10566000</v>
       </c>
       <c r="C10">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D10">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>3.1E-2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1241,8 +1290,8 @@
       <c r="I10">
         <v>1.63</v>
       </c>
-      <c r="J10">
-        <v>3.7474320000000003</v>
+      <c r="J10" s="9">
+        <v>3.7473383999999998</v>
       </c>
       <c r="K10">
         <v>6.1</v>
@@ -1256,10 +1305,11 @@
         <v>10566000</v>
       </c>
       <c r="C11">
-        <v>0.03</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D11">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>1.9E-2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1276,8 +1326,8 @@
       <c r="I11">
         <v>0.92</v>
       </c>
-      <c r="J11">
-        <v>3.459168</v>
+      <c r="J11" s="9">
+        <v>3.4590815999999998</v>
       </c>
       <c r="K11">
         <v>5.8</v>
@@ -1291,10 +1341,11 @@
         <v>10566000</v>
       </c>
       <c r="C12">
-        <v>0.03</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D12">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>1.9E-2</v>
       </c>
       <c r="E12">
         <v>2.54</v>
@@ -1311,8 +1362,8 @@
       <c r="I12">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J12">
-        <v>3.5072120000000004</v>
+      <c r="J12" s="10">
+        <v>3.5071243999999999</v>
       </c>
       <c r="K12">
         <v>5.2</v>
@@ -1326,10 +1377,11 @@
         <v>10566000</v>
       </c>
       <c r="C13">
-        <v>0.04</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D13">
-        <v>0.04</v>
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
       </c>
       <c r="E13">
         <v>88.9</v>
@@ -1349,10 +1401,11 @@
         <v>10566000</v>
       </c>
       <c r="C14">
-        <v>2.06</v>
+        <v>0.999</v>
       </c>
       <c r="D14">
-        <v>2.06</v>
+        <f t="shared" si="0"/>
+        <v>0.999</v>
       </c>
       <c r="E14">
         <v>16.510000000000002</v>
@@ -1366,8 +1419,8 @@
       <c r="I14">
         <v>1.27</v>
       </c>
-      <c r="J14">
-        <v>7.3026880000000007</v>
+      <c r="J14" s="11">
+        <v>7.3025055999999999</v>
       </c>
       <c r="K14">
         <v>4.2</v>
@@ -1381,10 +1434,11 @@
         <v>10566000</v>
       </c>
       <c r="C15">
-        <v>0.66200000000000003</v>
+        <v>1.012</v>
       </c>
       <c r="D15">
-        <v>0.66200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>1.012</v>
       </c>
       <c r="E15">
         <v>13.715999999999999</v>
@@ -1399,7 +1453,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J15">
-        <v>7.0864900000000004</v>
+        <v>7.0823</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1413,10 +1467,11 @@
         <v>10566000</v>
       </c>
       <c r="C16">
-        <v>0.54800000000000004</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D16">
-        <v>0.54800000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.89900000000000002</v>
       </c>
       <c r="E16">
         <v>19.303999999999998</v>
@@ -1431,7 +1486,7 @@
         <v>0.8</v>
       </c>
       <c r="J16">
-        <v>6.8342590000000003</v>
+        <v>6.8340883000000003</v>
       </c>
       <c r="K16">
         <v>3.8</v>
@@ -1445,10 +1500,11 @@
         <v>10566000</v>
       </c>
       <c r="C17">
-        <v>0.39600000000000002</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D17">
-        <v>0.39600000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.42799999999999999</v>
       </c>
       <c r="E17">
         <v>11.43</v>
@@ -1462,8 +1518,8 @@
       <c r="I17">
         <v>0.47</v>
       </c>
-      <c r="J17">
-        <v>6.2457200000000004</v>
+      <c r="J17" s="12">
+        <v>6.2455639999999999</v>
       </c>
       <c r="K17">
         <v>3.75</v>
@@ -1477,10 +1533,11 @@
         <v>10566000</v>
       </c>
       <c r="C18">
-        <v>0.75800000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="D18">
-        <v>0.75800000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.378</v>
       </c>
       <c r="E18">
         <v>30.988</v>
@@ -1494,8 +1551,8 @@
       <c r="I18">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J18">
-        <v>6.1736540000000009</v>
+      <c r="J18" s="13">
+        <v>6.1734998000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1506,10 +1563,11 @@
         <v>10566000</v>
       </c>
       <c r="C19">
-        <v>0.80400000000000005</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="D19">
-        <v>0.80400000000000005</v>
+        <f t="shared" si="0"/>
+        <v>1.4430000000000001</v>
       </c>
       <c r="E19">
         <v>19.05</v>
@@ -1523,8 +1581,8 @@
       <c r="I19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J19">
-        <v>6.5099620000000007</v>
+      <c r="J19" s="14">
+        <v>6.5097994000000003</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1535,10 +1593,11 @@
         <v>10566000</v>
       </c>
       <c r="C20">
-        <v>0.34</v>
+        <v>0.439</v>
       </c>
       <c r="D20">
-        <v>0.34</v>
+        <f t="shared" si="0"/>
+        <v>0.439</v>
       </c>
       <c r="E20">
         <v>10.16</v>
@@ -1552,8 +1611,8 @@
       <c r="I20">
         <v>0.59</v>
       </c>
-      <c r="J20">
-        <v>5.8733790000000008</v>
+      <c r="J20" s="15">
+        <v>5.8732322999999997</v>
       </c>
       <c r="K20">
         <v>4.3</v>
@@ -1567,10 +1626,11 @@
         <v>10566000</v>
       </c>
       <c r="C21">
-        <v>0.76</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D21">
-        <v>0.76</v>
+        <f t="shared" si="0"/>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E21">
         <v>27.69</v>
@@ -1584,8 +1644,8 @@
       <c r="I21">
         <v>3.32</v>
       </c>
-      <c r="J21">
-        <v>6.5459950000000005</v>
+      <c r="J21" s="16">
+        <v>6.5458315000000002</v>
       </c>
       <c r="K21">
         <v>4.4000000000000004</v>
@@ -1599,10 +1659,11 @@
         <v>10566000</v>
       </c>
       <c r="C22">
-        <v>1.0609999999999999</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D22">
-        <v>1.0609999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.84699999999999998</v>
       </c>
       <c r="E22">
         <v>17.271999999999998</v>
@@ -1613,8 +1674,8 @@
       <c r="G22">
         <v>10.57</v>
       </c>
-      <c r="J22">
-        <v>9.9090750000000014</v>
+      <c r="J22" s="17">
+        <v>9.9088274999999992</v>
       </c>
       <c r="K22">
         <v>3.8</v>
@@ -1627,6 +1688,13 @@
       <c r="B23">
         <v>10566000</v>
       </c>
+      <c r="C23">
+        <v>0.997</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.997</v>
+      </c>
       <c r="E23">
         <v>16.288</v>
       </c>
@@ -1685,10 +1753,11 @@
         <v>10566000</v>
       </c>
       <c r="C26">
-        <v>3.2000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D26">
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E26">
         <v>11.8</v>
@@ -1702,8 +1771,8 @@
       <c r="I26">
         <v>1.69</v>
       </c>
-      <c r="J26">
-        <v>3.8915640000000002</v>
+      <c r="J26" s="18">
+        <v>3.8914667999999999</v>
       </c>
       <c r="K26">
         <v>4.3</v>
@@ -1717,10 +1786,11 @@
         <v>10566000</v>
       </c>
       <c r="C27">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D27">
-        <v>8.5000000000000006E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E27">
         <v>13.99</v>
@@ -1734,8 +1804,8 @@
       <c r="I27">
         <v>1.19</v>
       </c>
-      <c r="J27">
-        <v>4.2398830000000007</v>
+      <c r="J27" s="19">
+        <v>4.2397770999999995</v>
       </c>
       <c r="K27">
         <v>5.4</v>
@@ -1749,10 +1819,11 @@
         <v>10566000</v>
       </c>
       <c r="C28">
-        <v>4.5999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D28">
-        <v>4.5999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.06</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1766,8 +1837,8 @@
       <c r="I28">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J28">
-        <v>3.4231350000000003</v>
+      <c r="J28" s="19">
+        <v>3.4230494999999999</v>
       </c>
       <c r="K28">
         <v>4.3</v>
@@ -1781,10 +1852,11 @@
         <v>10566000</v>
       </c>
       <c r="C29">
-        <v>3.2000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D29">
-        <v>3.2000000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.04</v>
       </c>
       <c r="E29">
         <v>5.78</v>
@@ -1798,8 +1870,8 @@
       <c r="I29">
         <v>0.95</v>
       </c>
-      <c r="J29">
-        <v>4.1077620000000001</v>
+      <c r="J29" s="19">
+        <v>4.1076594000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1810,10 +1882,11 @@
         <v>10566000</v>
       </c>
       <c r="C30">
-        <v>0.20899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="D30">
-        <v>0.20899999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.17</v>
       </c>
       <c r="E30">
         <v>35.82</v>
@@ -1827,8 +1900,8 @@
       <c r="I30">
         <v>1.23</v>
       </c>
-      <c r="J30">
-        <v>4.9485320000000002</v>
+      <c r="J30" s="20">
+        <v>4.9484083999999999</v>
       </c>
       <c r="K30">
         <v>5.0999999999999996</v>
@@ -1842,10 +1915,11 @@
         <v>10566000</v>
       </c>
       <c r="C31">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="D31">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.11</v>
       </c>
       <c r="E31">
         <v>1.26</v>
@@ -1859,8 +1933,8 @@
       <c r="I31">
         <v>1.35</v>
       </c>
-      <c r="J31">
-        <v>4.3720040000000004</v>
+      <c r="J31" s="21">
+        <v>4.3718947999999997</v>
       </c>
       <c r="K31">
         <v>5.7</v>
@@ -1874,10 +1948,11 @@
         <v>10566000</v>
       </c>
       <c r="C32">
-        <v>0.68500000000000005</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D32">
-        <v>0.68500000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E32">
         <v>30.7</v>
@@ -1891,8 +1966,8 @@
       <c r="I32">
         <v>1.333</v>
       </c>
-      <c r="J32">
-        <v>5.4049500000000004</v>
+      <c r="J32" s="22">
+        <v>5.4048150000000001</v>
       </c>
       <c r="K32">
         <v>6.8</v>
@@ -1906,10 +1981,11 @@
         <v>10566000</v>
       </c>
       <c r="C33">
-        <v>1.327</v>
+        <v>1.37</v>
       </c>
       <c r="D33">
-        <v>1.327</v>
+        <f t="shared" si="0"/>
+        <v>1.37</v>
       </c>
       <c r="E33">
         <v>18.940000000000001</v>
@@ -1923,8 +1999,8 @@
       <c r="I33">
         <v>1.4219999999999999</v>
       </c>
-      <c r="J33">
-        <v>6.9303470000000003</v>
+      <c r="J33" s="23">
+        <v>6.9301738999999998</v>
       </c>
       <c r="K33">
         <v>5.9</v>
@@ -1938,10 +2014,11 @@
         <v>10566000</v>
       </c>
       <c r="C34">
-        <v>0.64100000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D34">
-        <v>0.64100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.59</v>
       </c>
       <c r="E34">
         <v>6.73</v>
@@ -1955,8 +2032,8 @@
       <c r="I34">
         <v>1.425</v>
       </c>
-      <c r="J34">
-        <v>6.4859400000000003</v>
+      <c r="J34" s="24">
+        <v>6.4857780000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1966,6 +2043,13 @@
       <c r="B35">
         <v>10566000</v>
       </c>
+      <c r="C35">
+        <v>0.48</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
       <c r="E35">
         <v>0.03</v>
       </c>
@@ -1998,8 +2082,8 @@
       <c r="I36">
         <v>1.665</v>
       </c>
-      <c r="J36">
-        <v>6.1856650000000002</v>
+      <c r="J36" s="25">
+        <v>6.1855105000000004</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2021,8 +2105,8 @@
       <c r="I37">
         <v>1.4730000000000001</v>
       </c>
-      <c r="J37">
-        <v>6.4138740000000007</v>
+      <c r="J37" s="25">
+        <v>6.4137138</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2033,10 +2117,11 @@
         <v>10566000</v>
       </c>
       <c r="C38">
-        <v>1.3280000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="D38">
-        <v>1.3280000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.25</v>
       </c>
       <c r="E38">
         <v>23.22</v>
@@ -2050,8 +2135,8 @@
       <c r="I38">
         <v>0.97599999999999998</v>
       </c>
-      <c r="J38">
-        <v>8.1915019999999998</v>
+      <c r="J38" s="26">
+        <v>8.1912973999999998</v>
       </c>
       <c r="K38">
         <v>3.9</v>
@@ -2065,10 +2150,11 @@
         <v>10566000</v>
       </c>
       <c r="C39">
-        <v>0.94499999999999995</v>
+        <v>0.76</v>
       </c>
       <c r="D39">
-        <v>0.94499999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.76</v>
       </c>
       <c r="E39">
         <v>21.16</v>
@@ -2082,8 +2168,8 @@
       <c r="I39">
         <v>0.43</v>
       </c>
-      <c r="J39">
-        <v>8.455744000000001</v>
+      <c r="J39" s="27">
+        <v>8.4555328000000003</v>
       </c>
       <c r="K39">
         <v>4.2</v>
@@ -2097,10 +2183,11 @@
         <v>10566000</v>
       </c>
       <c r="C40">
-        <v>0.74399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="D40">
-        <v>0.74399999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.88</v>
       </c>
       <c r="E40">
         <v>7.84</v>
@@ -2114,8 +2201,8 @@
       <c r="I40">
         <v>0.52</v>
       </c>
-      <c r="J40">
-        <v>7.3387210000000005</v>
+      <c r="J40" s="28">
+        <v>7.3385376999999998</v>
       </c>
       <c r="K40">
         <v>5.35</v>
@@ -2129,10 +2216,11 @@
         <v>10566000</v>
       </c>
       <c r="C41">
-        <v>2.036</v>
+        <v>0.66</v>
       </c>
       <c r="D41">
-        <v>2.036</v>
+        <f t="shared" si="0"/>
+        <v>0.66</v>
       </c>
       <c r="E41">
         <v>41.32</v>
@@ -2147,7 +2235,7 @@
         <v>0.51</v>
       </c>
       <c r="J41">
-        <v>7.711062000000001</v>
+        <v>7.7108694</v>
       </c>
       <c r="K41">
         <v>5.6</v>
@@ -2161,10 +2249,11 @@
         <v>10566000</v>
       </c>
       <c r="C42">
-        <v>1.101</v>
+        <v>1.29</v>
       </c>
       <c r="D42">
-        <v>1.101</v>
+        <f t="shared" si="0"/>
+        <v>1.29</v>
       </c>
       <c r="E42">
         <v>27.59</v>
@@ -2178,8 +2267,8 @@
       <c r="I42">
         <v>0.76</v>
       </c>
-      <c r="J42">
-        <v>7.2546440000000008</v>
+      <c r="J42" s="29">
+        <v>7.2544627999999998</v>
       </c>
       <c r="K42">
         <v>5.05</v>
@@ -2193,10 +2282,11 @@
         <v>10566000</v>
       </c>
       <c r="C43">
-        <v>1.111</v>
+        <v>1.31</v>
       </c>
       <c r="D43">
-        <v>1.111</v>
+        <f t="shared" si="0"/>
+        <v>1.31</v>
       </c>
       <c r="E43">
         <v>22.02</v>
@@ -2211,7 +2301,7 @@
         <v>0.46</v>
       </c>
       <c r="J43">
-        <v>7.6149740000000001</v>
+        <v>7.6147837999999997</v>
       </c>
       <c r="K43">
         <v>4.75</v>
@@ -2225,10 +2315,11 @@
         <v>10566000</v>
       </c>
       <c r="C44">
-        <v>1.2709999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="D44">
-        <v>1.2709999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.96</v>
       </c>
       <c r="E44">
         <v>22.74</v>
@@ -2243,7 +2334,7 @@
         <v>0.69</v>
       </c>
       <c r="J44">
-        <v>7.4227980000000002</v>
+        <v>7.4266170000000002</v>
       </c>
       <c r="K44">
         <v>5.25</v>
@@ -2257,10 +2348,11 @@
         <v>10566000</v>
       </c>
       <c r="C45">
-        <v>0.94099999999999995</v>
+        <v>1.17</v>
       </c>
       <c r="D45">
-        <v>0.94099999999999995</v>
+        <f t="shared" si="0"/>
+        <v>1.17</v>
       </c>
       <c r="E45">
         <v>11.74</v>
@@ -2274,8 +2366,8 @@
       <c r="I45">
         <v>0.59</v>
       </c>
-      <c r="J45">
-        <v>7.3387210000000005</v>
+      <c r="J45" s="30">
+        <v>7.3385376999999998</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -2289,10 +2381,11 @@
         <v>10566000</v>
       </c>
       <c r="C46">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
       <c r="D46">
-        <v>0.47</v>
+        <f t="shared" si="0"/>
+        <v>0.64</v>
       </c>
       <c r="E46">
         <v>3.36</v>
@@ -2306,8 +2399,8 @@
       <c r="I46">
         <v>0.47</v>
       </c>
-      <c r="J46">
-        <v>6.1015880000000005</v>
+      <c r="J46" s="31">
+        <v>6.1014356000000003</v>
       </c>
       <c r="K46">
         <v>4.4000000000000004</v>
